--- a/data/trans_dic/P36BPD07_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD07_R-Dificultad-trans_dic.xlsx
@@ -609,22 +609,22 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.8112159757157504</v>
+        <v>0.1887840242842495</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.5939121349100708</v>
+        <v>0.4060878650899294</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.8229226858507959</v>
+        <v>0.1770773141492041</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.6908068340494471</v>
+        <v>0.309193165950553</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>0.8173913446786595</v>
+        <v>0.1826086553213406</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.6478049200511569</v>
+        <v>0.3521950799488429</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7861962807990179</v>
+        <v>0.1652569508408386</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5484252138873278</v>
+        <v>0.3586258989918593</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.798755024231606</v>
+        <v>0.1558829185841617</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.6545877004783335</v>
+        <v>0.2748503280716156</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.7990973967565683</v>
+        <v>0.1673404332107604</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.6187361348319623</v>
+        <v>0.3220949856127919</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8347430491591616</v>
+        <v>0.2138037192009822</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6413741010081407</v>
+        <v>0.4515747861126725</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8441170814158383</v>
+        <v>0.2012449757683943</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.7251496719283844</v>
+        <v>0.3454122995216667</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.8326595667892396</v>
+        <v>0.2009026032434316</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.6779050143872077</v>
+        <v>0.3812638651680377</v>
       </c>
     </row>
     <row r="7">
@@ -691,22 +691,22 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.8579342108552401</v>
+        <v>0.1420657891447599</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.6262698101434899</v>
+        <v>0.3737301898565101</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.877428413663254</v>
+        <v>0.122571586336746</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.7070549609063018</v>
+        <v>0.292945039093698</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.8681769298706298</v>
+        <v>0.1318230701293702</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.6696999773570106</v>
+        <v>0.3303000226429894</v>
       </c>
     </row>
     <row r="8">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8351692344687351</v>
+        <v>0.1195552721736888</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.592578487494126</v>
+        <v>0.3394078501921935</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8560127337189479</v>
+        <v>0.1038958096056919</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.679237915065389</v>
+        <v>0.2693319770594607</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.8512035196046024</v>
+        <v>0.1174712758579017</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.647677015992238</v>
+        <v>0.3110683058896114</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8804447278263111</v>
+        <v>0.1648307655312649</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6605921498078066</v>
+        <v>0.4074215125058739</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8961041903943081</v>
+        <v>0.1439872662810521</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.7306680229405396</v>
+        <v>0.3207620849346111</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.8825287241420984</v>
+        <v>0.1487964803953978</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.6889316941103882</v>
+        <v>0.3523229840077617</v>
       </c>
     </row>
     <row r="10">
@@ -773,22 +773,22 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.8664572703193212</v>
+        <v>0.1335427296806788</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.7271141129464112</v>
+        <v>0.2728858870535888</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.9140984233656491</v>
+        <v>0.08590157663435094</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.7698789049860769</v>
+        <v>0.2301210950139233</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.8895627826298583</v>
+        <v>0.1104372173701417</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.748494007318783</v>
+        <v>0.2515059926812169</v>
       </c>
     </row>
     <row r="11">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8375010390122029</v>
+        <v>0.1129930347155572</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6949278588183274</v>
+        <v>0.2419427277985165</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8928382312743716</v>
+        <v>0.06671185397946086</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.7456511712673536</v>
+        <v>0.2066055444395346</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.8726122466568447</v>
+        <v>0.09538490553827221</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.7278605504737191</v>
+        <v>0.2332972318022506</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8870069652844428</v>
+        <v>0.1624989609877972</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7580572722014836</v>
+        <v>0.3050721411816728</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9332881460205391</v>
+        <v>0.1071617687256284</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.7933944555604657</v>
+        <v>0.2543488287326463</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9046150944617277</v>
+        <v>0.1273877533431552</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.7667027681977493</v>
+        <v>0.2721394495262811</v>
       </c>
     </row>
     <row r="13">
@@ -855,22 +855,22 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.8523521035768392</v>
+        <v>0.1476478964231608</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.8397957796074493</v>
+        <v>0.1602042203925507</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.8824085582904541</v>
+        <v>0.1175914417095459</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.8661970999193358</v>
+        <v>0.1338029000806641</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.8670773825649961</v>
+        <v>0.1329226174350039</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.8525031555419821</v>
+        <v>0.1474968444580178</v>
       </c>
     </row>
     <row r="14">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8186981723131443</v>
+        <v>0.1208830548289373</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8105589937266847</v>
+        <v>0.1334058997392462</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8502313583800655</v>
+        <v>0.09081376971184869</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.8419757207600852</v>
+        <v>0.113564591065109</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8447474955459724</v>
+        <v>0.1117579681565289</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.833164169493901</v>
+        <v>0.1294528375486307</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8791169451710628</v>
+        <v>0.181301827686856</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8665941002607539</v>
+        <v>0.1894410062733155</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9091862302881514</v>
+        <v>0.1497686416199347</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.8864354089348911</v>
+        <v>0.1580242792399148</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.8882420318434711</v>
+        <v>0.1552525044540276</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.8705471624513682</v>
+        <v>0.1668358305060988</v>
       </c>
     </row>
     <row r="16">
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.8434799267003333</v>
+        <v>0.1565200732996667</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.7118960570808889</v>
+        <v>0.2881039429191111</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.8666321999005626</v>
+        <v>0.1333678000994373</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.7611892194618405</v>
+        <v>0.2388107805381596</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.8553273233048939</v>
+        <v>0.1446726766951061</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.7372691657552992</v>
+        <v>0.2627308342447007</v>
       </c>
     </row>
     <row r="17">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8303357671812968</v>
+        <v>0.1433847813877598</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.6952473937660133</v>
+        <v>0.2703976116603288</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8554282501684898</v>
+        <v>0.122234353044324</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.7471658529701345</v>
+        <v>0.2267466077358286</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.8461737982131224</v>
+        <v>0.1361519214589006</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.7261508014922706</v>
+        <v>0.2523570281245688</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8566152186122409</v>
+        <v>0.1696642328187036</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7296023883396713</v>
+        <v>0.3047526062339867</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8777656469556762</v>
+        <v>0.1445717498315102</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.7732533922641713</v>
+        <v>0.2528341470298655</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.8638480785410995</v>
+        <v>0.1538262017868776</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.7476429718754311</v>
+        <v>0.2738491985077293</v>
       </c>
     </row>
     <row r="19">
@@ -1139,22 +1139,22 @@
         </is>
       </c>
       <c r="C4" s="6" t="n">
-        <v>865</v>
+        <v>197</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>275</v>
+        <v>178</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>965</v>
+        <v>218</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>624</v>
+        <v>235</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>1830</v>
+        <v>415</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>899</v>
+        <v>413</v>
       </c>
     </row>
     <row r="5">
@@ -1165,22 +1165,22 @@
         </is>
       </c>
       <c r="C5" s="6" t="n">
-        <v>911203</v>
+        <v>212053</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>294939</v>
+        <v>201665</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>1031977</v>
+        <v>222062</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>429942</v>
+        <v>192434</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>1943180</v>
+        <v>434115</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>724881</v>
+        <v>394099</v>
       </c>
     </row>
     <row r="6">
@@ -1191,22 +1191,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>883100</v>
+        <v>185626</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>272350</v>
+        <v>178095</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1001670</v>
+        <v>195483</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>407400</v>
+        <v>171060</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1899690</v>
+        <v>397818</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>692353</v>
+        <v>360418</v>
       </c>
     </row>
     <row r="7">
@@ -1217,22 +1217,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>937630</v>
+        <v>240156</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>318509</v>
+        <v>224254</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>1058556</v>
+        <v>252369</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>451316</v>
+        <v>214976</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>1979477</v>
+        <v>477605</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>758562</v>
+        <v>426627</v>
       </c>
     </row>
     <row r="8">
@@ -1247,22 +1247,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>754</v>
+        <v>123</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>587</v>
+        <v>322</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>828</v>
+        <v>120</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>1189</v>
+        <v>417</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>1582</v>
+        <v>243</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>1776</v>
+        <v>739</v>
       </c>
     </row>
     <row r="9">
@@ -1273,22 +1273,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>776510</v>
+        <v>128583</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>600763</v>
+        <v>358509</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>879242</v>
+        <v>122825</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>788566</v>
+        <v>326716</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1655752</v>
+        <v>251408</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1389329</v>
+        <v>685225</v>
       </c>
     </row>
     <row r="10">
@@ -1299,22 +1299,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>755906</v>
+        <v>108209</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>568444</v>
+        <v>325584</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>857782</v>
+        <v>104111</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>757542</v>
+        <v>300381</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1623381</v>
+        <v>224037</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1343641</v>
+        <v>645328</v>
       </c>
     </row>
     <row r="11">
@@ -1325,22 +1325,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>796884</v>
+        <v>149187</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>633688</v>
+        <v>390828</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>897956</v>
+        <v>144285</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>814901</v>
+        <v>357740</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>1683123</v>
+        <v>283779</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>1429226</v>
+        <v>730913</v>
       </c>
     </row>
     <row r="12">
@@ -1355,22 +1355,22 @@
         </is>
       </c>
       <c r="C12" s="6" t="n">
-        <v>675</v>
+        <v>103</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>767</v>
+        <v>261</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>659</v>
+        <v>65</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>1205</v>
+        <v>308</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1334</v>
+        <v>168</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1972</v>
+        <v>569</v>
       </c>
     </row>
     <row r="13">
@@ -1381,22 +1381,22 @@
         </is>
       </c>
       <c r="C13" s="6" t="n">
-        <v>705515</v>
+        <v>108737</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>760130</v>
+        <v>285277</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>700922</v>
+        <v>65869</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>804648</v>
+        <v>240514</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>1406438</v>
+        <v>174606</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>1564778</v>
+        <v>525791</v>
       </c>
     </row>
     <row r="14">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>681937</v>
+        <v>92005</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>726482</v>
+        <v>252929</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>684620</v>
+        <v>51154</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>779326</v>
+        <v>215936</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1379638</v>
+        <v>150808</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1521643</v>
+        <v>487724</v>
       </c>
     </row>
     <row r="15">
@@ -1433,22 +1433,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>722247</v>
+        <v>132315</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>792478</v>
+        <v>318925</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>715637</v>
+        <v>82171</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>829226</v>
+        <v>265836</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1430236</v>
+        <v>201406</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1602845</v>
+        <v>568926</v>
       </c>
     </row>
     <row r="16">
@@ -1463,22 +1463,22 @@
         </is>
       </c>
       <c r="C16" s="6" t="n">
-        <v>395</v>
+        <v>71</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>813</v>
+        <v>134</v>
       </c>
       <c r="E16" s="6" t="n">
-        <v>392</v>
+        <v>57</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>1171</v>
+        <v>145</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>787</v>
+        <v>128</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>1984</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17">
@@ -1489,22 +1489,22 @@
         </is>
       </c>
       <c r="C17" s="6" t="n">
-        <v>427401</v>
+        <v>74036</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>819581</v>
+        <v>156348</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>424986</v>
+        <v>56634</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>784445</v>
+        <v>121174</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>852386</v>
+        <v>130671</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>1604026</v>
+        <v>277522</v>
       </c>
     </row>
     <row r="18">
@@ -1515,22 +1515,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>410526</v>
+        <v>60615</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>791048</v>
+        <v>130195</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>409488</v>
+        <v>43738</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>762509</v>
+        <v>102846</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>830435</v>
+        <v>109864</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1567638</v>
+        <v>243572</v>
       </c>
     </row>
     <row r="19">
@@ -1541,22 +1541,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>440822</v>
+        <v>90911</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>845734</v>
+        <v>184881</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>437882</v>
+        <v>72132</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>802773</v>
+        <v>143110</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>873193</v>
+        <v>152622</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>1637976</v>
+        <v>313910</v>
       </c>
     </row>
     <row r="20">
@@ -1571,22 +1571,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>2689</v>
+        <v>494</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>2442</v>
+        <v>895</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>2844</v>
+        <v>460</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>4189</v>
+        <v>1105</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>5533</v>
+        <v>954</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>6631</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="21">
@@ -1597,22 +1597,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2820629</v>
+        <v>523409</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>2475414</v>
+        <v>1001798</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>3037128</v>
+        <v>467390</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>2807600</v>
+        <v>880839</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>5857757</v>
+        <v>990799</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>5283014</v>
+        <v>1882637</v>
       </c>
     </row>
     <row r="22">
@@ -1623,22 +1623,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2776674</v>
+        <v>479484</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2417523</v>
+        <v>940230</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2997864</v>
+        <v>428372</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>2755876</v>
+        <v>836341</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>5795069</v>
+        <v>932444</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>5203343</v>
+        <v>1808302</v>
       </c>
     </row>
     <row r="23">
@@ -1649,22 +1649,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>2864554</v>
+        <v>567364</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>2536982</v>
+        <v>1059689</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>3076146</v>
+        <v>506654</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>2852098</v>
+        <v>932563</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>5916112</v>
+        <v>1053487</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>5357349</v>
+        <v>1962308</v>
       </c>
     </row>
     <row r="24">

--- a/data/trans_dic/P36BPD07_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD07_R-Dificultad-trans_dic.xlsx
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consume menos de una bebida azucarada por día (tasa de respuesta: 99,64%)</t>
+          <t>Población que consume al menos una bebida azucarada por día (tasa de respuesta: 99,64%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1060,7 +1060,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consume menos de una bebida azucarada por día (tasa de respuesta: 99,64%)</t>
+          <t>Población que consume al menos una bebida azucarada por día (tasa de respuesta: 99,64%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P36BPD07_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD07_R-Dificultad-trans_dic.xlsx
@@ -612,7 +612,7 @@
         <v>0.1887840242842495</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.4060878650899294</v>
+        <v>0.4060878650899293</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.1770773141492041</v>
@@ -624,7 +624,7 @@
         <v>0.1826086553213406</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.3521950799488429</v>
+        <v>0.352195079948843</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1652569508408386</v>
+        <v>0.1674264413011198</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3586258989918593</v>
+        <v>0.3556169724196193</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1558829185841617</v>
+        <v>0.1561457049102239</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2748503280716156</v>
+        <v>0.2766271457678623</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1673404332107604</v>
+        <v>0.1688642863177569</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3220949856127919</v>
+        <v>0.3211404982045546</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2138037192009822</v>
+        <v>0.2135148032180259</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4515747861126725</v>
+        <v>0.4584339665910022</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2012449757683943</v>
+        <v>0.1998428113714384</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3454122995216667</v>
+        <v>0.3450566487796555</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2009026032434316</v>
+        <v>0.1991348480711442</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3812638651680377</v>
+        <v>0.3796122819618116</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +700,7 @@
         <v>0.122571586336746</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.292945039093698</v>
+        <v>0.2929450390936981</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.1318230701293702</v>
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1195552721736888</v>
+        <v>0.1196970660217665</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3394078501921935</v>
+        <v>0.3396705332589448</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1038958096056919</v>
+        <v>0.1016523480336124</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2693319770594607</v>
+        <v>0.268613838420161</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1174712758579017</v>
+        <v>0.1162122202180091</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3110683058896114</v>
+        <v>0.3100022366888886</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1648307655312649</v>
+        <v>0.1654199876510076</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4074215125058739</v>
+        <v>0.4091507083162902</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1439872662810521</v>
+        <v>0.1429974000062607</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3207620849346111</v>
+        <v>0.3190385134211237</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1487964803953978</v>
+        <v>0.1471052367265096</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3523229840077617</v>
+        <v>0.3541162875928593</v>
       </c>
     </row>
     <row r="10">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1129930347155572</v>
+        <v>0.1116929781936832</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2419427277985165</v>
+        <v>0.2429085179934083</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.06671185397946086</v>
+        <v>0.06833948154381471</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2066055444395346</v>
+        <v>0.2076846341475535</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.09538490553827221</v>
+        <v>0.09383717898230184</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2332972318022506</v>
+        <v>0.2301945398469037</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1624989609877972</v>
+        <v>0.1614087850417811</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3050721411816728</v>
+        <v>0.3046562296651038</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1071617687256284</v>
+        <v>0.1101296619512051</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2543488287326463</v>
+        <v>0.2549471191376754</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1273877533431552</v>
+        <v>0.1267019036178093</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2721394495262811</v>
+        <v>0.2694797765247086</v>
       </c>
     </row>
     <row r="13">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1208830548289373</v>
+        <v>0.1157055049076603</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1334058997392462</v>
+        <v>0.1343889595929707</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.09081376971184869</v>
+        <v>0.0921643038048344</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.113564591065109</v>
+        <v>0.1117088783822953</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1117579681565289</v>
+        <v>0.1124772331995366</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1294528375486307</v>
+        <v>0.130768470846462</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.181301827686856</v>
+        <v>0.1777743403737793</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1894410062733155</v>
+        <v>0.1896087361897779</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1497686416199347</v>
+        <v>0.1495796329215708</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1580242792399148</v>
+        <v>0.1597792693249106</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1552525044540276</v>
+        <v>0.156222469681187</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1668358305060988</v>
+        <v>0.1677270591228493</v>
       </c>
     </row>
     <row r="16">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1433847813877598</v>
+        <v>0.1456048499915737</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2703976116603288</v>
+        <v>0.271412693879869</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.122234353044324</v>
+        <v>0.1215607063359456</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2267466077358286</v>
+        <v>0.225853381502754</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1361519214589006</v>
+        <v>0.135911488974953</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2523570281245688</v>
+        <v>0.2514061933741716</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1696642328187036</v>
+        <v>0.1706408858765391</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3047526062339867</v>
+        <v>0.3048214624328349</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1445717498315102</v>
+        <v>0.1452075732404556</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2528341470298655</v>
+        <v>0.2524045372374043</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1538262017868776</v>
+        <v>0.1528133334018526</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2738491985077293</v>
+        <v>0.2734666273151707</v>
       </c>
     </row>
     <row r="19">
@@ -1191,22 +1191,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>185626</v>
+        <v>188063</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>178095</v>
+        <v>176601</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>195483</v>
+        <v>195813</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>171060</v>
+        <v>172166</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>397818</v>
+        <v>401440</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>360418</v>
+        <v>359350</v>
       </c>
     </row>
     <row r="7">
@@ -1217,22 +1217,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>240156</v>
+        <v>239832</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>224254</v>
+        <v>227660</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>252369</v>
+        <v>250611</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>214976</v>
+        <v>214755</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>477605</v>
+        <v>473402</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>426627</v>
+        <v>424779</v>
       </c>
     </row>
     <row r="8">
@@ -1299,22 +1299,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>108209</v>
+        <v>108337</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>325584</v>
+        <v>325836</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>104111</v>
+        <v>101862</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>300381</v>
+        <v>299580</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>224037</v>
+        <v>221635</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>645328</v>
+        <v>643116</v>
       </c>
     </row>
     <row r="11">
@@ -1325,22 +1325,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>149187</v>
+        <v>149720</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>390828</v>
+        <v>392487</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>144285</v>
+        <v>143293</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>357740</v>
+        <v>355818</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>283779</v>
+        <v>280553</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>730913</v>
+        <v>734633</v>
       </c>
     </row>
     <row r="12">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>92005</v>
+        <v>90946</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>252929</v>
+        <v>253938</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>51154</v>
+        <v>52402</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>215936</v>
+        <v>217064</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>150808</v>
+        <v>148361</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>487724</v>
+        <v>481238</v>
       </c>
     </row>
     <row r="15">
@@ -1433,22 +1433,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>132315</v>
+        <v>131427</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>318925</v>
+        <v>318490</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>82171</v>
+        <v>84446</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>265836</v>
+        <v>266461</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>201406</v>
+        <v>200321</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>568926</v>
+        <v>563366</v>
       </c>
     </row>
     <row r="16">
@@ -1515,22 +1515,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>60615</v>
+        <v>58019</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>130195</v>
+        <v>131154</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>43738</v>
+        <v>44388</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>102846</v>
+        <v>101166</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>109864</v>
+        <v>110572</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>243572</v>
+        <v>246047</v>
       </c>
     </row>
     <row r="19">
@@ -1541,22 +1541,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>90911</v>
+        <v>89143</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>184881</v>
+        <v>185045</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>72132</v>
+        <v>72041</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>143110</v>
+        <v>144699</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>152622</v>
+        <v>153576</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>313910</v>
+        <v>315587</v>
       </c>
     </row>
     <row r="20">
@@ -1623,22 +1623,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>479484</v>
+        <v>486908</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>940230</v>
+        <v>943759</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>428372</v>
+        <v>426012</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>836341</v>
+        <v>833046</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>932444</v>
+        <v>930797</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1808302</v>
+        <v>1801489</v>
       </c>
     </row>
     <row r="23">
@@ -1649,22 +1649,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>567364</v>
+        <v>570630</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1059689</v>
+        <v>1059929</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>506654</v>
+        <v>508883</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>932563</v>
+        <v>930979</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1053487</v>
+        <v>1046551</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1962308</v>
+        <v>1959566</v>
       </c>
     </row>
     <row r="24">
